--- a/biology/Biologie cellulaire et moléculaire/Rouge_de_crésol/Rouge_de_crésol.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Rouge_de_crésol/Rouge_de_crésol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rouge_de_cr%C3%A9sol</t>
+          <t>Rouge_de_crésol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le rouge de crésol (ou ortho-Crésolsulfonephthaléine) est un colorant de la famille des sulfonephtaléines utilisé comme indicateur de pH.
 Voici les deux zones de virage de cet indicateur :
-Le rouge de crésol a 2 zones de virage : la première est à pH entre 0,5 à 2,5, où il passe de la couleur rouge (pH&lt;0,5) à jaune (pH&gt;2,5) ; la seconde est à pH entre 6,5 et 8,5, où il passe de la couleur orange (pH&lt;6,5) à violette (pH&gt;8,5)[2].
+Le rouge de crésol a 2 zones de virage : la première est à pH entre 0,5 à 2,5, où il passe de la couleur rouge (pH&lt;0,5) à jaune (pH&gt;2,5) ; la seconde est à pH entre 6,5 et 8,5, où il passe de la couleur orange (pH&lt;6,5) à violette (pH&gt;8,5).
 Le rouge de crésol est utilisé, à l'instar du bleu de bromophénol, comme marqueur coloré afin de vérifier le bon déroulement d'une électrophorèse sur gel de polyacrylamide ou d'une électrophorèse en gel d'agarose.
 </t>
         </is>
